--- a/assets/代数结构成绩统计.xlsx
+++ b/assets/代数结构成绩统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\739pm\Desktop\代数结构\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\739pm\Desktop\代数结构\去名字（可发布）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEFF8AF-98DC-4AEF-BBB4-7F38A91DEC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5DD6F1-39E5-4252-BD62-50127889D007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,12 +653,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,7 +661,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1016,83 +1016,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -1439,7 +1439,9 @@
       <c r="B26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="8">
+        <v>10</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1639,7 +1641,9 @@
       <c r="B38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="8">
+        <v>10</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1654,7 +1658,9 @@
       <c r="B39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="8">
+        <v>10</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1839,7 +1845,9 @@
       <c r="B50" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="8">
+        <v>10</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2092,7 +2100,9 @@
       <c r="B65" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="8"/>
+      <c r="C65" s="8">
+        <v>9.5</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2532,7 +2542,9 @@
       <c r="B91" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="8"/>
+      <c r="C91" s="8">
+        <v>10</v>
+      </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2970,7 +2982,9 @@
       <c r="B117" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="8"/>
+      <c r="C117" s="8">
+        <v>10</v>
+      </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -3366,24 +3380,29 @@
       <c r="I140" s="1"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="10"/>
+      <c r="B146" s="13"/>
       <c r="C146" t="s">
         <v>146</v>
       </c>
       <c r="D146" t="s">
         <v>147</v>
       </c>
-      <c r="F146" s="10" t="s">
+      <c r="F146" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="F146:H146"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:E4"/>
@@ -3391,11 +3410,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="F146:H146"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.3" right="0.3" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
